--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26517</v>
+        <v>98933</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuelly Silveira</t>
+          <t>Alexia Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>5040.72</v>
+        <v>8195.610000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27811</v>
+        <v>71313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raquel da Paz</t>
+          <t>Caroline Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>6158.07</v>
+        <v>3037.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22653</v>
+        <v>40395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Cardoso</t>
+          <t>Sarah da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>9094.690000000001</v>
+        <v>8041.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73534</v>
+        <v>96399</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isadora Porto</t>
+          <t>Emanuel Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>11459.65</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61757</v>
+        <v>61861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietra Barbosa</t>
+          <t>Alexandre Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>8939.9</v>
+        <v>7216.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73768</v>
+        <v>97520</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juan Almeida</t>
+          <t>Sr. Theo Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>11046.98</v>
+        <v>10346.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73997</v>
+        <v>41783</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cauê da Rocha</t>
+          <t>Daniela Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>10851.34</v>
+        <v>9465.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19619</v>
+        <v>69512</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Felipe Lopes</t>
+          <t>Srta. Lívia Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>5892.66</v>
+        <v>3755.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58784</v>
+        <v>19667</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bernardo Sales</t>
+          <t>Dra. Eduarda Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>9782.190000000001</v>
+        <v>7250.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47399</v>
+        <v>63802</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Jesus</t>
+          <t>Leonardo Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>10456.43</v>
+        <v>6922.35</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98933</v>
+        <v>61419</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia Nogueira</t>
+          <t>João Miguel Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>8195.610000000001</v>
+        <v>5546.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71313</v>
+        <v>38403</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline Silveira</t>
+          <t>Larissa Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>3037.82</v>
+        <v>10830.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40395</v>
+        <v>34049</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah da Mata</t>
+          <t>Daniela Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>8041.47</v>
+        <v>10236.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96399</v>
+        <v>31681</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuel Ribeiro</t>
+          <t>Gustavo Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>4756</v>
+        <v>7692.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61861</v>
+        <v>56273</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alexandre Souza</t>
+          <t>Ana Vitória Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>7216.47</v>
+        <v>6970.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97520</v>
+        <v>60852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Theo Teixeira</t>
+          <t>Alexia da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>10346.66</v>
+        <v>9827.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41783</v>
+        <v>45182</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniela Cunha</t>
+          <t>Dra. Laura Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>9465.9</v>
+        <v>10841.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69512</v>
+        <v>9330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Lívia Freitas</t>
+          <t>Joana Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>3755.94</v>
+        <v>4989.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19667</v>
+        <v>30807</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Eduarda Ribeiro</t>
+          <t>Maria Luiza Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>7250.73</v>
+        <v>8434.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63802</v>
+        <v>10315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leonardo Oliveira</t>
+          <t>Sabrina da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>6922.35</v>
+        <v>3623.99</v>
       </c>
     </row>
   </sheetData>
